--- a/matlab/out.xlsx
+++ b/matlab/out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Documents/GitHub/RFIDsystem/matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF66EB33-D258-D04B-9649-2F790925FF0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54483AE5-583E-7248-B6DE-E2C0A84555D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>lastName</t>
   </si>
@@ -28,45 +28,18 @@
     <t>Brown</t>
   </si>
   <si>
-    <t>Bickelhaupt</t>
-  </si>
-  <si>
-    <t>Almousa</t>
-  </si>
-  <si>
-    <t>Gutschlag</t>
-  </si>
-  <si>
-    <t>Astley</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
     <t>Dylan</t>
   </si>
   <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Rick</t>
-  </si>
-  <si>
     <t>Present</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>02/16/19</t>
-  </si>
-  <si>
     <t>Tryban</t>
   </si>
   <si>
@@ -83,6 +56,9 @@
   </si>
   <si>
     <t>Dan</t>
+  </si>
+  <si>
+    <t>02/20/19</t>
   </si>
 </sst>
 </file>
@@ -103,7 +79,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -120,135 +103,16 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -576,88 +442,79 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>13</v>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>7</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>14</v>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>18</v>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>14</v>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>19</v>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>14</v>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>20</v>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>14</v>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/out.xlsx
+++ b/matlab/out.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Documents/GitHub/RFIDsystem/matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54483AE5-583E-7248-B6DE-E2C0A84555D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE4C533-8906-9242-8529-17B3C1F97BD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Attendance" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="42">
   <si>
     <t>lastName</t>
   </si>
@@ -59,6 +59,93 @@
   </si>
   <si>
     <t>02/20/19</t>
+  </si>
+  <si>
+    <t>Anandappa</t>
+  </si>
+  <si>
+    <t>Bickelhaupt</t>
+  </si>
+  <si>
+    <t>Brach</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Elion</t>
+  </si>
+  <si>
+    <t>Kumicich</t>
+  </si>
+  <si>
+    <t>Leveille</t>
+  </si>
+  <si>
+    <t>El-Howayek</t>
+  </si>
+  <si>
+    <t>Khorbotly</t>
+  </si>
+  <si>
+    <t>Budnik</t>
+  </si>
+  <si>
+    <t>Wertz</t>
+  </si>
+  <si>
+    <t>Marley</t>
+  </si>
+  <si>
+    <t>Gerard</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Georges</t>
+  </si>
+  <si>
+    <t>Sami</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>02/22/19</t>
   </si>
 </sst>
 </file>
@@ -79,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -94,25 +181,45 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
     <border/>
     <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,95 +533,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="true"/>
     <col min="2" max="2" width="10" customWidth="true"/>
     <col min="3" max="3" width="8" customWidth="true"/>
     <col min="4" max="4" width="8.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
+      <c r="D5" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/out.xlsx
+++ b/matlab/out.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="43">
   <si>
     <t>lastName</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>02/22/19</t>
+  </si>
+  <si>
+    <t>02/23/19</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="132">
     <border>
       <left/>
       <right/>
@@ -197,11 +200,125 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -220,6 +337,120 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,269 +778,269 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="130" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="130" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="130" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="130" t="s">
         <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>41</v>
+      <c r="D4" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="130" t="s">
         <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>41</v>
+      <c r="D5" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="130" t="s">
         <v>27</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="130" t="s">
         <v>28</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>41</v>
+      <c r="D7" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="130" t="s">
         <v>29</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>41</v>
+      <c r="D8" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="130" t="s">
         <v>30</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>41</v>
+      <c r="D9" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="130" t="s">
         <v>31</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>41</v>
+      <c r="D10" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="130" t="s">
         <v>32</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>41</v>
+      <c r="D11" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="130" t="s">
         <v>33</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>41</v>
+      <c r="D12" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="130" t="s">
         <v>34</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>41</v>
+      <c r="D13" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="130" t="s">
         <v>35</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>41</v>
+      <c r="D14" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="130" t="s">
         <v>36</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>41</v>
+      <c r="D15" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="130" t="s">
         <v>37</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>41</v>
+      <c r="D16" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>41</v>
+      <c r="D17" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="130" t="s">
         <v>39</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>41</v>
+      <c r="D18" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>41</v>
+      <c r="D19" s="130" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/out.xlsx
+++ b/matlab/out.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="45">
   <si>
     <t>lastName</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>02/23/19</t>
+  </si>
+  <si>
+    <t>02/27/19</t>
+  </si>
+  <si>
+    <t>03/27/19</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="132">
+  <borders count="140">
     <border>
       <left/>
       <right/>
@@ -314,11 +320,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -451,6 +465,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,269 +800,269 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="138" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="130" t="s">
-        <v>42</v>
+      <c r="D2" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="138" t="s">
         <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="130" t="s">
-        <v>42</v>
+      <c r="D3" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.2">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="138" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="130" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="138" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="130" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.2">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="138" t="s">
         <v>27</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="130" t="s">
-        <v>42</v>
+      <c r="D6" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.2">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="138" t="s">
         <v>28</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="130" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.2">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="138" t="s">
         <v>29</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.2">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="138" t="s">
         <v>30</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="130" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.2">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="138" t="s">
         <v>31</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="130" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.2">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="130" t="s">
-        <v>42</v>
+      <c r="D11" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="138" t="s">
         <v>33</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="130" t="s">
-        <v>42</v>
+      <c r="D12" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.2">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="138" t="s">
         <v>34</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="130" t="s">
-        <v>42</v>
+      <c r="D13" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="138" t="s">
         <v>35</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="130" t="s">
-        <v>42</v>
+      <c r="D14" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="138" t="s">
         <v>36</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="130" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="138" t="s">
         <v>37</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="130" t="s">
-        <v>42</v>
+      <c r="D16" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="138" t="s">
         <v>38</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="130" t="s">
-        <v>42</v>
+      <c r="D17" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="138" t="s">
         <v>39</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="130" t="s">
-        <v>42</v>
+      <c r="D18" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="138" t="s">
         <v>40</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="130" t="s">
-        <v>42</v>
+      <c r="D19" s="138" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
